--- a/REGULAR/CHO/MIRANDO, EDITH.xlsx
+++ b/REGULAR/CHO/MIRANDO, EDITH.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="435">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1329,6 +1329,15 @@
   </si>
   <si>
     <t>3/3-9/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/25,26/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2035,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K614" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K615" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2355,12 +2364,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K614"/>
+  <dimension ref="A2:K615"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A556" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K571" sqref="K571"/>
+      <selection pane="bottomLeft" activeCell="K575" sqref="K575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,14 +2532,14 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.323000000000093</v>
+        <v>87.073000000000093</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>135.75</v>
+        <v>137.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15131,13 +15140,15 @@
         <v>45170</v>
       </c>
       <c r="B572" s="20"/>
-      <c r="C572" s="13"/>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D572" s="39"/>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G572" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
@@ -15148,32 +15159,42 @@
       <c r="A573" s="40">
         <v>45200</v>
       </c>
-      <c r="B573" s="20"/>
-      <c r="C573" s="13"/>
+      <c r="B573" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H573" s="39"/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H573" s="39">
+        <v>2</v>
+      </c>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20"/>
+      <c r="K573" s="20" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45231</v>
       </c>
       <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
@@ -15184,9 +15205,13 @@
       <c r="A575" s="40">
         <v>45261</v>
       </c>
-      <c r="B575" s="20"/>
+      <c r="B575" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C575" s="13"/>
-      <c r="D575" s="39"/>
+      <c r="D575" s="39">
+        <v>3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="13" t="str">
@@ -15196,11 +15221,13 @@
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
+      <c r="K575" s="20" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40">
-        <v>45292</v>
+      <c r="A576" s="48" t="s">
+        <v>432</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15218,7 +15245,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15236,7 +15263,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15254,7 +15281,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15272,7 +15299,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15290,7 +15317,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15308,7 +15335,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15326,7 +15353,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15344,7 +15371,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15362,7 +15389,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15380,7 +15407,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15398,7 +15425,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15416,7 +15443,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15434,7 +15461,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15452,7 +15479,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15470,7 +15497,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15488,7 +15515,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15506,7 +15533,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15524,7 +15551,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15542,7 +15569,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15560,7 +15587,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15578,7 +15605,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15596,7 +15623,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15614,7 +15641,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15632,7 +15659,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15650,7 +15677,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15668,7 +15695,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15686,7 +15713,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15704,7 +15731,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15722,7 +15749,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15740,7 +15767,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15758,7 +15785,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15776,7 +15803,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15794,7 +15821,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15812,7 +15839,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15830,7 +15857,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15847,7 +15874,9 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="40"/>
+      <c r="A612" s="40">
+        <v>46357</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
@@ -15879,20 +15908,36 @@
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="41"/>
-      <c r="B614" s="15"/>
-      <c r="C614" s="42"/>
-      <c r="D614" s="43"/>
+      <c r="A614" s="40"/>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39"/>
       <c r="E614" s="9"/>
-      <c r="F614" s="15"/>
-      <c r="G614" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H614" s="43"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
       <c r="I614" s="9"/>
-      <c r="J614" s="12"/>
-      <c r="K614" s="15"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="41"/>
+      <c r="B615" s="15"/>
+      <c r="C615" s="42"/>
+      <c r="D615" s="43"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="15"/>
+      <c r="G615" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="43"/>
+      <c r="I615" s="9"/>
+      <c r="J615" s="12"/>
+      <c r="K615" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16059,7 +16104,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>222.07300000000009</v>
+        <v>224.57300000000009</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
